--- a/docs/ST3a/ST3a_01.08.24_output.xlsx
+++ b/docs/ST3a/ST3a_01.08.24_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K34"/>
+  <dimension ref="A1:N34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,52 +437,67 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>open</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>close</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>open_image</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>close_img</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>pos</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>traider</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>open_price</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>close_price</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>quity</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>percent</t>
         </is>
       </c>
     </row>
@@ -490,614 +505,729 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>moex</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2024-06-14 16:05:29.360793</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2024-06-14 16:08:51.910451</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>VisualTraider</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>1731316194.8586009</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>1731316197.1975043</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>./test_images/SBER1731316194.8586009.png</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>./test_images/SBER1731316197.1975043.png</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
         <v>289.39</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>289.89</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3" t="n">
         <v>0.5</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.17</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>1731316197.2134614</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>1731316203.016558</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>./test_images/SBER1731316197.2134614.png</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>./test_images/SBER1731316203.016558.png</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
         <v>289.89</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>289.1</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>0.7899999999999636</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.27</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>1731316206.3038898</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>1731316208.3120708</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>./test_images/SBER1731316206.3038898.png</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>./test_images/SBER1731316208.3120708.png</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
         <v>289.82</v>
       </c>
-      <c r="J5" t="n">
+      <c r="L5" t="n">
         <v>289.51</v>
       </c>
-      <c r="K5" t="n">
+      <c r="M5" t="n">
         <v>0.3100000000000023</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.11</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>1731316223.3383443</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>1731316226.7874076</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731316223.3383443.png</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731316226.7874076.png</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
         <v>133.4</v>
       </c>
-      <c r="J6" t="n">
+      <c r="L6" t="n">
         <v>133.63</v>
       </c>
-      <c r="K6" t="n">
+      <c r="M6" t="n">
         <v>0.2299999999999898</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.17</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>1731316234.7096322</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>1731316238.7944367</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731316234.7096322.png</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731316238.7944367.png</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
         <v>133.4</v>
       </c>
-      <c r="J7" t="n">
+      <c r="L7" t="n">
         <v>133.15</v>
       </c>
-      <c r="K7" t="n">
+      <c r="M7" t="n">
         <v>0.25</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.19</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>1731316281.1557875</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>1731316281.5255308</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731316281.1557875.png</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731316281.5255308.png</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
         <v>513.8</v>
       </c>
-      <c r="J8" t="n">
+      <c r="L8" t="n">
         <v>516.65</v>
       </c>
-      <c r="K8" t="n">
+      <c r="M8" t="n">
         <v>2.850000000000023</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.5499999999999999</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>1731316283.4965494</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>./test_images/ROSN1731316283.4965494.png</t>
         </is>
       </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr">
         <is>
+          <t>./test_images/ROSN1731316283.4965494.png</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
         <v>515.15</v>
       </c>
-      <c r="J9" t="n">
-        <v>515.15</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
+      <c r="L9" t="n">
+        <v>506.8</v>
+      </c>
+      <c r="M9" t="n">
+        <v>-8.349999999999966</v>
+      </c>
+      <c r="N9" t="n">
+        <v>-1.62</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8</v>
+      </c>
+      <c r="D10" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>1731316312.020818</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>1731316318.362137</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731316312.020818.png</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731316318.362137.png</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
         <v>233.13</v>
       </c>
-      <c r="J10" t="n">
+      <c r="L10" t="n">
         <v>232.34</v>
       </c>
-      <c r="K10" t="n">
+      <c r="M10" t="n">
         <v>0.789999999999992</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.34</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9</v>
+      </c>
+      <c r="D11" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>1731316318.3771245</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>1731316319.1039848</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731316318.3771245.png</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731316319.1039848.png</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
         <v>232.34</v>
       </c>
-      <c r="J11" t="n">
+      <c r="L11" t="n">
         <v>233.07</v>
       </c>
-      <c r="K11" t="n">
+      <c r="M11" t="n">
         <v>0.7299999999999898</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.31</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>10</v>
+      </c>
+      <c r="D12" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>1731316339.8426225</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>1731316340.1407232</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731316339.8426225.png</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731316340.1407232.png</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I12" t="n">
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
         <v>1041.4</v>
       </c>
-      <c r="J12" t="n">
+      <c r="L12" t="n">
         <v>1049</v>
       </c>
-      <c r="K12" t="n">
+      <c r="M12" t="n">
         <v>7.599999999999909</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0.73</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>11</v>
+      </c>
+      <c r="D13" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>1731316361.0512621</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>1731316365.318219</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731316361.0512621.png</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731316365.318219.png</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
         <v>1037.2</v>
       </c>
-      <c r="J13" t="n">
+      <c r="L13" t="n">
         <v>1030</v>
       </c>
-      <c r="K13" t="n">
+      <c r="M13" t="n">
         <v>7.200000000000045</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0.6899999999999999</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>12</v>
+      </c>
+      <c r="D14" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>1731316370.7930074</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>./test_images/CNY1731316370.7930074.png</t>
         </is>
       </c>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr">
         <is>
+          <t>./test_images/CNY1731316370.7930074.png</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
         <v>11.864</v>
       </c>
-      <c r="J14" t="n">
+      <c r="L14" t="n">
         <v>11.864</v>
       </c>
-      <c r="K14" t="n">
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1105,940 +1235,1120 @@
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>13</v>
+      </c>
+      <c r="D15" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>1731316403.4678605</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>1731316406.5964854</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731316403.4678605.png</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731316406.5964854.png</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
         <v>165.88</v>
       </c>
-      <c r="J15" t="n">
+      <c r="L15" t="n">
         <v>166.4</v>
       </c>
-      <c r="K15" t="n">
+      <c r="M15" t="n">
         <v>0.5200000000000102</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0.31</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>14</v>
+      </c>
+      <c r="D16" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>1731316419.3509743</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>./test_images/NLMK1731316419.3509743.png</t>
         </is>
       </c>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr">
         <is>
+          <t>./test_images/NLMK1731316419.3509743.png</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
         <v>166.3</v>
       </c>
-      <c r="J16" t="n">
-        <v>166.3</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0</v>
+      <c r="L16" t="n">
+        <v>164.66</v>
+      </c>
+      <c r="M16" t="n">
+        <v>-1.640000000000015</v>
+      </c>
+      <c r="N16" t="n">
+        <v>-0.9900000000000001</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>15</v>
+      </c>
+      <c r="D17" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>1731316432.8620992</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>1731316446.6832058</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731316432.8620992.png</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731316446.6832058.png</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
         <v>50.81</v>
       </c>
-      <c r="J17" t="n">
+      <c r="L17" t="n">
         <v>50.92</v>
       </c>
-      <c r="K17" t="n">
+      <c r="M17" t="n">
         <v>0.1099999999999994</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0.22</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>16</v>
+      </c>
+      <c r="D18" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>1731316446.6981637</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>1731316449.8317294</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731316446.6981637.png</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731316449.8317294.png</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I18" t="n">
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
         <v>50.92</v>
       </c>
-      <c r="J18" t="n">
+      <c r="L18" t="n">
         <v>50.815</v>
       </c>
-      <c r="K18" t="n">
+      <c r="M18" t="n">
         <v>0.105000000000004</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0.21</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="n">
+        <v>17</v>
+      </c>
+      <c r="D19" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>1731316449.8466876</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>./test_images/MAGN1731316449.8466876.png</t>
         </is>
       </c>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr">
         <is>
+          <t>./test_images/MAGN1731316449.8466876.png</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I19" t="n">
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
         <v>50.815</v>
       </c>
-      <c r="J19" t="n">
-        <v>50.815</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0</v>
+      <c r="L19" t="n">
+        <v>50.57</v>
+      </c>
+      <c r="M19" t="n">
+        <v>-0.2449999999999974</v>
+      </c>
+      <c r="N19" t="n">
+        <v>-0.48</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B20" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" t="n">
+        <v>18</v>
+      </c>
+      <c r="D20" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>1731316459.7927606</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>1731316463.2724977</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731316459.7927606.png</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731316463.2724977.png</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I20" t="n">
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
         <v>1412.4</v>
       </c>
-      <c r="J20" t="n">
+      <c r="L20" t="n">
         <v>1417.4</v>
       </c>
-      <c r="K20" t="n">
+      <c r="M20" t="n">
         <v>5</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0.35</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B21" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" t="n">
+        <v>19</v>
+      </c>
+      <c r="D21" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>1731316473.2167118</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>1731316476.6500282</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731316473.2167118.png</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731316476.6500282.png</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I21" t="n">
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
         <v>1419</v>
       </c>
-      <c r="J21" t="n">
+      <c r="L21" t="n">
         <v>1418.2</v>
       </c>
-      <c r="K21" t="n">
+      <c r="M21" t="n">
         <v>0.7999999999999545</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0.06</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="n">
+        <v>20</v>
+      </c>
+      <c r="D22" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>1731316476.6649888</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr"/>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>./test_images/CHMF1731316476.6649888.png</t>
         </is>
       </c>
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr">
         <is>
+          <t>./test_images/CHMF1731316476.6649888.png</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I22" t="n">
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
         <v>1418.2</v>
       </c>
-      <c r="J22" t="n">
-        <v>1418.2</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0</v>
+      <c r="L22" t="n">
+        <v>1412.6</v>
+      </c>
+      <c r="M22" t="n">
+        <v>-5.600000000000136</v>
+      </c>
+      <c r="N22" t="n">
+        <v>-0.39</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B23" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" t="n">
+        <v>21</v>
+      </c>
+      <c r="D23" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>1731316504.3190804</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>1731316510.8258984</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731316504.3190804.png</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731316510.8258984.png</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I23" t="n">
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
         <v>61.34</v>
       </c>
-      <c r="J23" t="n">
+      <c r="L23" t="n">
         <v>60.95</v>
       </c>
-      <c r="K23" t="n">
+      <c r="M23" t="n">
         <v>0.3900000000000006</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0.64</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B24" t="n">
+        <v>22</v>
+      </c>
+      <c r="C24" t="n">
+        <v>22</v>
+      </c>
+      <c r="D24" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>1731316524.5808992</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>1731316535.1716402</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>./test_images/SELG1731316524.5808992.png</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>./test_images/SELG1731316535.1716402.png</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="I24" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I24" t="n">
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
         <v>58.74</v>
       </c>
-      <c r="J24" t="n">
+      <c r="L24" t="n">
         <v>58.42</v>
       </c>
-      <c r="K24" t="n">
+      <c r="M24" t="n">
         <v>-0.3200000000000003</v>
+      </c>
+      <c r="N24" t="n">
+        <v>-0.54</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B25" t="n">
+        <v>23</v>
+      </c>
+      <c r="C25" t="n">
+        <v>23</v>
+      </c>
+      <c r="D25" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>1731316535.1856017</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>1731316538.6344213</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>./test_images/SELG1731316535.1856017.png</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>./test_images/SELG1731316538.6344213.png</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="I25" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I25" t="n">
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
         <v>58.42</v>
       </c>
-      <c r="J25" t="n">
+      <c r="L25" t="n">
         <v>58.34</v>
       </c>
-      <c r="K25" t="n">
+      <c r="M25" t="n">
         <v>0.07999999999999829</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0.14</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B26" t="n">
+        <v>24</v>
+      </c>
+      <c r="C26" t="n">
+        <v>24</v>
+      </c>
+      <c r="D26" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>1731316617.003359</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr"/>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>./test_images/SIBN1731316617.003359.png</t>
         </is>
       </c>
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr">
         <is>
+          <t>./test_images/SIBN1731316617.003359.png</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I26" t="n">
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
         <v>683.4</v>
       </c>
-      <c r="J26" t="n">
-        <v>683.4</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
+      <c r="L26" t="n">
+        <v>679.2</v>
+      </c>
+      <c r="M26" t="n">
+        <v>-4.199999999999932</v>
+      </c>
+      <c r="N26" t="n">
+        <v>-0.61</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B27" t="n">
+        <v>25</v>
+      </c>
+      <c r="C27" t="n">
+        <v>25</v>
+      </c>
+      <c r="D27" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>1731316655.8446562</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr"/>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>./test_images/FEES1731316655.8446562.png</t>
         </is>
       </c>
       <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr">
         <is>
+          <t>./test_images/FEES1731316655.8446562.png</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I27" t="n">
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
         <v>0.10054</v>
       </c>
-      <c r="J27" t="n">
-        <v>0.10054</v>
-      </c>
-      <c r="K27" t="n">
-        <v>0</v>
+      <c r="L27" t="n">
+        <v>0.09927999999999999</v>
+      </c>
+      <c r="M27" t="n">
+        <v>-0.001260000000000011</v>
+      </c>
+      <c r="N27" t="n">
+        <v>-1.25</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B28" t="n">
+        <v>26</v>
+      </c>
+      <c r="C28" t="n">
+        <v>26</v>
+      </c>
+      <c r="D28" t="inlineStr">
         <is>
           <t>HYDR</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>1731316685.02629</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>1731316688.551965</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>./test_images/HYDR1731316685.02629.png</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>./test_images/HYDR1731316688.551965.png</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="I28" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I28" t="n">
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
         <v>0.6043000000000001</v>
       </c>
-      <c r="J28" t="n">
+      <c r="L28" t="n">
         <v>0.6053000000000001</v>
       </c>
-      <c r="K28" t="n">
+      <c r="M28" t="n">
         <v>0.001000000000000001</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0.17</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B29" t="n">
+        <v>27</v>
+      </c>
+      <c r="C29" t="n">
+        <v>27</v>
+      </c>
+      <c r="D29" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>1731316698.2642295</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>1731316700.3218787</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>./test_images/MXI1731316698.2642295.png</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="H29" t="inlineStr">
         <is>
           <t>./test_images/MXI1731316700.3218787.png</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="I29" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I29" t="n">
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
         <v>3035.45</v>
       </c>
-      <c r="J29" t="n">
+      <c r="L29" t="n">
         <v>3027.55</v>
       </c>
-      <c r="K29" t="n">
+      <c r="M29" t="n">
         <v>7.899999999999636</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0.26</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B30" t="n">
+        <v>28</v>
+      </c>
+      <c r="C30" t="n">
+        <v>28</v>
+      </c>
+      <c r="D30" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>1731316709.0967653</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>1731316712.3946147</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>./test_images/MXI1731316709.0967653.png</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t>./test_images/MXI1731316712.3946147.png</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="I30" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I30" t="n">
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
         <v>3018.15</v>
       </c>
-      <c r="J30" t="n">
+      <c r="L30" t="n">
         <v>3027.75</v>
       </c>
-      <c r="K30" t="n">
+      <c r="M30" t="n">
         <v>9.599999999999909</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0.32</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B31" t="n">
+        <v>29</v>
+      </c>
+      <c r="C31" t="n">
+        <v>29</v>
+      </c>
+      <c r="D31" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>1731316712.443379</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>1731316714.07644</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>./test_images/MXI1731316712.443379.png</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="H31" t="inlineStr">
         <is>
           <t>./test_images/MXI1731316714.07644.png</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="I31" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I31" t="n">
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
         <v>3026.45</v>
       </c>
-      <c r="J31" t="n">
+      <c r="L31" t="n">
         <v>3012.35</v>
       </c>
-      <c r="K31" t="n">
+      <c r="M31" t="n">
         <v>14.09999999999991</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0.47</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B32" t="n">
+        <v>30</v>
+      </c>
+      <c r="C32" t="n">
+        <v>30</v>
+      </c>
+      <c r="D32" t="inlineStr">
         <is>
           <t>RUAL</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>1731316726.4375284</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>1731316729.5683281</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731316726.4375284.png</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="H32" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731316729.5683281.png</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="I32" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I32" t="n">
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
         <v>34.785</v>
       </c>
-      <c r="J32" t="n">
+      <c r="L32" t="n">
         <v>34.845</v>
       </c>
-      <c r="K32" t="n">
+      <c r="M32" t="n">
         <v>0.06000000000000227</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0.17</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B33" t="n">
+        <v>31</v>
+      </c>
+      <c r="C33" t="n">
+        <v>31</v>
+      </c>
+      <c r="D33" t="inlineStr">
         <is>
           <t>RUAL</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>1731316738.3115344</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>1731316739.2573</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731316738.3115344.png</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="H33" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731316739.2573.png</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="I33" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I33" t="n">
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
         <v>34.85</v>
       </c>
-      <c r="J33" t="n">
+      <c r="L33" t="n">
         <v>34.73</v>
       </c>
-      <c r="K33" t="n">
+      <c r="M33" t="n">
         <v>0.1200000000000045</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0.34</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B34" t="n">
+        <v>32</v>
+      </c>
+      <c r="C34" t="n">
+        <v>32</v>
+      </c>
+      <c r="D34" t="inlineStr">
         <is>
           <t>RUAL</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>1731316742.6352868</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>1731316747.2902925</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731316742.6352868.png</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="H34" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731316747.2902925.png</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
+      <c r="I34" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I34" t="n">
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
         <v>34.935</v>
       </c>
-      <c r="J34" t="n">
+      <c r="L34" t="n">
         <v>34.41</v>
       </c>
-      <c r="K34" t="n">
+      <c r="M34" t="n">
         <v>0.5250000000000057</v>
+      </c>
+      <c r="N34" t="n">
+        <v>1.5</v>
       </c>
     </row>
   </sheetData>
@@ -2052,7 +2362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2076,6 +2386,21 @@
           <t>count</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>part</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>total_percent</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>average_percent</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -2089,6 +2414,15 @@
       <c r="C2" t="n">
         <v>3</v>
       </c>
+      <c r="D2" t="n">
+        <v>10.53333333333315</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.35</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -2102,6 +2436,15 @@
       <c r="C3" t="n">
         <v>3</v>
       </c>
+      <c r="D3" t="n">
+        <v>0.2350000000000042</v>
+      </c>
+      <c r="E3" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.67</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -2115,6 +2458,15 @@
       <c r="C4" t="n">
         <v>3</v>
       </c>
+      <c r="D4" t="n">
+        <v>0.533333333333322</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.18</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -2123,11 +2475,20 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.2150000000000034</v>
+        <v>-0.02999999999999403</v>
       </c>
       <c r="C5" t="n">
         <v>3</v>
       </c>
+      <c r="D5" t="n">
+        <v>-0.00999999999999801</v>
+      </c>
+      <c r="E5" t="n">
+        <v>-0.04999999999999999</v>
+      </c>
+      <c r="F5" t="n">
+        <v>-0.02</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -2136,11 +2497,20 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5.799999999999955</v>
+        <v>0.1999999999998181</v>
       </c>
       <c r="C6" t="n">
         <v>3</v>
       </c>
+      <c r="D6" t="n">
+        <v>0.06666666666660603</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.02000000000000007</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -2154,6 +2524,15 @@
       <c r="C7" t="n">
         <v>2</v>
       </c>
+      <c r="D7" t="n">
+        <v>-0.120000000000001</v>
+      </c>
+      <c r="E7" t="n">
+        <v>-0.4</v>
+      </c>
+      <c r="F7" t="n">
+        <v>-0.2</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -2167,6 +2546,15 @@
       <c r="C8" t="n">
         <v>2</v>
       </c>
+      <c r="D8" t="n">
+        <v>0.2399999999999949</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.18</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -2180,6 +2568,15 @@
       <c r="C9" t="n">
         <v>2</v>
       </c>
+      <c r="D9" t="n">
+        <v>0.7599999999999909</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.6499999999999999</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.32</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -2188,11 +2585,20 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.5200000000000102</v>
+        <v>-1.120000000000005</v>
       </c>
       <c r="C10" t="n">
         <v>2</v>
       </c>
+      <c r="D10" t="n">
+        <v>-0.5600000000000023</v>
+      </c>
+      <c r="E10" t="n">
+        <v>-0.6800000000000002</v>
+      </c>
+      <c r="F10" t="n">
+        <v>-0.34</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -2206,6 +2612,15 @@
       <c r="C11" t="n">
         <v>2</v>
       </c>
+      <c r="D11" t="n">
+        <v>7.399999999999977</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.71</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -2214,11 +2629,20 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2.850000000000023</v>
+        <v>-5.499999999999943</v>
       </c>
       <c r="C12" t="n">
         <v>2</v>
       </c>
+      <c r="D12" t="n">
+        <v>-2.749999999999972</v>
+      </c>
+      <c r="E12" t="n">
+        <v>-1.07</v>
+      </c>
+      <c r="F12" t="n">
+        <v>-0.53</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -2227,11 +2651,20 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>-4.199999999999932</v>
       </c>
       <c r="C13" t="n">
         <v>1</v>
       </c>
+      <c r="D13" t="n">
+        <v>-4.199999999999932</v>
+      </c>
+      <c r="E13" t="n">
+        <v>-0.61</v>
+      </c>
+      <c r="F13" t="n">
+        <v>-0.61</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -2245,6 +2678,15 @@
       <c r="C14" t="n">
         <v>1</v>
       </c>
+      <c r="D14" t="n">
+        <v>0.3900000000000006</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.64</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -2258,6 +2700,15 @@
       <c r="C15" t="n">
         <v>1</v>
       </c>
+      <c r="D15" t="n">
+        <v>0.001000000000000001</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.17</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -2266,11 +2717,20 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>-0.001260000000000011</v>
       </c>
       <c r="C16" t="n">
         <v>1</v>
       </c>
+      <c r="D16" t="n">
+        <v>-0.001260000000000011</v>
+      </c>
+      <c r="E16" t="n">
+        <v>-1.25</v>
+      </c>
+      <c r="F16" t="n">
+        <v>-1.25</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -2284,6 +2744,15 @@
       <c r="C17" t="n">
         <v>1</v>
       </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -2297,6 +2766,11 @@
       <c r="C18" t="n">
         <v>0</v>
       </c>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
